--- a/东奥会计专业/202101/开票明细/补贴明细.xlsx
+++ b/东奥会计专业/202101/开票明细/补贴明细.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>网点名称</t>
   </si>
@@ -121,10 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1月揽件不达标二级扣款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1月二级面单返利扣款</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -133,6 +130,42 @@
   </si>
   <si>
     <t>1月二级面单返利扣款</t>
+  </si>
+  <si>
+    <t>二级系统使用费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级网络建设费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>派费截留</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月客服补贴</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>面单返利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节不打烊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月揽件不达标及操作不规范扣款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -143,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +237,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -622,19 +662,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="14.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
@@ -660,10 +701,10 @@
         <v>24</v>
       </c>
       <c r="G2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>26</v>
@@ -986,23 +1027,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:N9"/>
+  <dimension ref="A4:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.875" customWidth="1"/>
+    <col min="2" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.875" customWidth="1"/>
+    <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -1010,28 +1050,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>1744.99</v>
+        <v>1722.99</v>
       </c>
       <c r="C5" s="11">
         <v>2370</v>
@@ -1039,26 +1085,30 @@
       <c r="D5" s="11">
         <v>325.84999999999997</v>
       </c>
-      <c r="E5" s="11">
-        <f>B5+C5+D5</f>
-        <v>4440.84</v>
-      </c>
-      <c r="L5" s="19">
-        <v>-659.43</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="11">
+        <f>SUM(B5:F5)</f>
+        <v>14418.84</v>
+      </c>
+      <c r="N5" s="19">
+        <v>-659.43000000000006</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1580.31</v>
+        <v>1535.31</v>
       </c>
       <c r="C6" s="11">
         <v>6246.5000000000009</v>
@@ -1066,70 +1116,87 @@
       <c r="D6" s="11">
         <v>430.2</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E7" si="0">B6+C6+D6</f>
-        <v>8257.010000000002</v>
-      </c>
-      <c r="L6" s="19">
-        <v>-1744.99</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G8" si="0">SUM(B6:F6)</f>
+        <v>18212.010000000002</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-1722.99</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>174484.32</v>
+        <v>173879.32</v>
       </c>
       <c r="C7" s="11">
         <v>1500</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
+        <v>2400</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>175984.32</v>
-      </c>
-      <c r="L7" s="19">
-        <v>-1580.31</v>
-      </c>
-      <c r="M7" s="16" t="s">
+        <v>187779.32</v>
+      </c>
+      <c r="N7" s="19">
+        <v>-1535.31</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="L8" s="19">
+      <c r="E8" s="6">
+        <v>3500</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="N8" s="19">
         <v>-100</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B5:B8)</f>
-        <v>177809.62</v>
+        <v>177137.62</v>
       </c>
       <c r="C9" s="6">
         <f>SUM(C5:C8)</f>
@@ -1140,16 +1207,24 @@
         <v>756.05</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(E5:E8)</f>
-        <v>188682.17</v>
-      </c>
-      <c r="L9" s="19">
-        <v>-174484.32</v>
-      </c>
-      <c r="M9" s="16" t="s">
+        <f t="shared" ref="E9:F9" si="1">SUM(E5:E8)</f>
+        <v>5900</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="G9" s="6">
+        <f>SUM(G5:G8)</f>
+        <v>223910.17</v>
+      </c>
+      <c r="N9" s="19">
+        <v>-173879.32</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="P9" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1157,4 +1232,73 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G10:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28988.1</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20554.400000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>70596.75</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15124.6</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2">
+        <f>SUM(H10:H14)</f>
+        <v>145043.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>